--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanumay123\Desktop\Automation\Selenium_projects_workspace\DataDrivenFramework_Excel_basic\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C10D7F0-5964-4AF6-A4B0-D29097250232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F23C0E-79A5-4F2F-8E2D-A7C3DEC2534B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1147,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3006AF-FFB9-4790-B36E-A450286F4748}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
